--- a/techniqo/data_new_ticker/LUXIND.xlsx
+++ b/techniqo/data_new_ticker/LUXIND.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1162"/>
+  <dimension ref="A1:G1164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41056,6 +41056,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1163">
+      <c r="A1163" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1163" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C1163" t="n">
+        <v>1440</v>
+      </c>
+      <c r="D1163" t="n">
+        <v>1385</v>
+      </c>
+      <c r="E1163" t="n">
+        <v>1420.5</v>
+      </c>
+      <c r="F1163" t="n">
+        <v>184771</v>
+      </c>
+      <c r="G1163" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1164" t="n">
+        <v>1435</v>
+      </c>
+      <c r="C1164" t="n">
+        <v>1444</v>
+      </c>
+      <c r="D1164" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E1164" t="n">
+        <v>1421.45</v>
+      </c>
+      <c r="F1164" t="n">
+        <v>141656</v>
+      </c>
+      <c r="G1164" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/LUXIND.xlsx
+++ b/techniqo/data_new_ticker/LUXIND.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1164"/>
+  <dimension ref="A1:G1166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -41106,6 +41106,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1165">
+      <c r="A1165" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1165" t="n">
+        <v>1410.45</v>
+      </c>
+      <c r="C1165" t="n">
+        <v>1428</v>
+      </c>
+      <c r="D1165" t="n">
+        <v>1400</v>
+      </c>
+      <c r="E1165" t="n">
+        <v>1403.95</v>
+      </c>
+      <c r="F1165" t="n">
+        <v>111663</v>
+      </c>
+      <c r="G1165" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1166" t="n">
+        <v>1415</v>
+      </c>
+      <c r="C1166" t="n">
+        <v>1433.9</v>
+      </c>
+      <c r="D1166" t="n">
+        <v>1395</v>
+      </c>
+      <c r="E1166" t="n">
+        <v>1408.8</v>
+      </c>
+      <c r="F1166" t="n">
+        <v>68906</v>
+      </c>
+      <c r="G1166" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
